--- a/database/MechanicalEngineering/ME_Course_database.xlsx
+++ b/database/MechanicalEngineering/ME_Course_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\20110706\TaiGer_Transcript-Program_Comparer\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\20110706\TaiGer_Transcript-Program_Comparer\database\MechanicalEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476BB392-DCC6-432F-8F19-49DC470F87BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C8CECE-C424-45BE-88F6-DF4839A3B677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6975" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{4A678F9F-A21C-41A5-9AEE-FA5C928DC178}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A678F9F-A21C-41A5-9AEE-FA5C928DC178}"/>
   </bookViews>
   <sheets>
     <sheet name="All_ME_Courses" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>普通物理學(一)</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>能源系統</t>
+  </si>
+  <si>
+    <t>製造學</t>
   </si>
 </sst>
 </file>
@@ -763,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C323114-BC5F-49C1-9F53-9EA9AB7CC060}">
-  <dimension ref="A1:W424"/>
+  <dimension ref="A1:W425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1983,7 +1986,7 @@
     </row>
     <row r="51" spans="1:23">
       <c r="A51" s="12" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="B51" s="5"/>
       <c r="D51" s="5"/>
@@ -2007,7 +2010,7 @@
     </row>
     <row r="52" spans="1:23">
       <c r="A52" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52" s="5"/>
       <c r="D52" s="5"/>
@@ -2031,7 +2034,7 @@
     </row>
     <row r="53" spans="1:23">
       <c r="A53" s="12" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="B53" s="5"/>
       <c r="D53" s="5"/>
@@ -2055,7 +2058,7 @@
     </row>
     <row r="54" spans="1:23">
       <c r="A54" s="12" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="B54" s="5"/>
       <c r="D54" s="5"/>
@@ -2074,12 +2077,12 @@
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
+      <c r="V54" s="1"/>
       <c r="W54" s="7"/>
     </row>
     <row r="55" spans="1:23">
       <c r="A55" s="12" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B55" s="5"/>
       <c r="D55" s="5"/>
@@ -2103,7 +2106,7 @@
     </row>
     <row r="56" spans="1:23">
       <c r="A56" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B56" s="5"/>
       <c r="D56" s="5"/>
@@ -2127,7 +2130,7 @@
     </row>
     <row r="57" spans="1:23">
       <c r="A57" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B57" s="5"/>
       <c r="D57" s="5"/>
@@ -2151,7 +2154,7 @@
     </row>
     <row r="58" spans="1:23">
       <c r="A58" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B58" s="5"/>
       <c r="D58" s="5"/>
@@ -2175,7 +2178,7 @@
     </row>
     <row r="59" spans="1:23">
       <c r="A59" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B59" s="5"/>
       <c r="D59" s="5"/>
@@ -2199,7 +2202,7 @@
     </row>
     <row r="60" spans="1:23">
       <c r="A60" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60" s="5"/>
       <c r="D60" s="5"/>
@@ -2222,8 +2225,8 @@
       <c r="W60" s="7"/>
     </row>
     <row r="61" spans="1:23">
-      <c r="A61" s="13" t="s">
-        <v>67</v>
+      <c r="A61" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="B61" s="5"/>
       <c r="D61" s="5"/>
@@ -2246,8 +2249,8 @@
       <c r="W61" s="7"/>
     </row>
     <row r="62" spans="1:23">
-      <c r="A62" s="12" t="s">
-        <v>49</v>
+      <c r="A62" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="B62" s="5"/>
       <c r="D62" s="5"/>
@@ -2271,7 +2274,7 @@
     </row>
     <row r="63" spans="1:23">
       <c r="A63" s="12" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B63" s="5"/>
       <c r="D63" s="5"/>
@@ -2295,7 +2298,7 @@
     </row>
     <row r="64" spans="1:23">
       <c r="A64" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B64" s="5"/>
       <c r="D64" s="5"/>
@@ -2319,7 +2322,7 @@
     </row>
     <row r="65" spans="1:23">
       <c r="A65" s="12" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B65" s="5"/>
       <c r="D65" s="5"/>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="66" spans="1:23">
       <c r="A66" s="12" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B66" s="5"/>
       <c r="D66" s="5"/>
@@ -2367,7 +2370,7 @@
     </row>
     <row r="67" spans="1:23">
       <c r="A67" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" s="5"/>
       <c r="D67" s="5"/>
@@ -2391,7 +2394,7 @@
     </row>
     <row r="68" spans="1:23">
       <c r="A68" s="12" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B68" s="5"/>
       <c r="D68" s="5"/>
@@ -2415,7 +2418,7 @@
     </row>
     <row r="69" spans="1:23">
       <c r="A69" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" s="5"/>
       <c r="D69" s="5"/>
@@ -2439,7 +2442,7 @@
     </row>
     <row r="70" spans="1:23">
       <c r="A70" s="12" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B70" s="5"/>
       <c r="D70" s="5"/>
@@ -2463,7 +2466,7 @@
     </row>
     <row r="71" spans="1:23">
       <c r="A71" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B71" s="5"/>
       <c r="D71" s="5"/>
@@ -2487,7 +2490,7 @@
     </row>
     <row r="72" spans="1:23">
       <c r="A72" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B72" s="5"/>
       <c r="D72" s="5"/>
@@ -2511,7 +2514,7 @@
     </row>
     <row r="73" spans="1:23">
       <c r="A73" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B73" s="5"/>
       <c r="D73" s="5"/>
@@ -2535,7 +2538,7 @@
     </row>
     <row r="74" spans="1:23">
       <c r="A74" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B74" s="5"/>
       <c r="D74" s="5"/>
@@ -2554,12 +2557,12 @@
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
-      <c r="V74" s="1"/>
+      <c r="V74" s="5"/>
       <c r="W74" s="7"/>
     </row>
     <row r="75" spans="1:23">
       <c r="A75" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B75" s="5"/>
       <c r="D75" s="5"/>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="76" spans="1:23">
       <c r="A76" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B76" s="5"/>
       <c r="D76" s="5"/>
@@ -2607,7 +2610,7 @@
     </row>
     <row r="77" spans="1:23">
       <c r="A77" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B77" s="5"/>
       <c r="D77" s="5"/>
@@ -2631,7 +2634,7 @@
     </row>
     <row r="78" spans="1:23">
       <c r="A78" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B78" s="5"/>
       <c r="D78" s="5"/>
@@ -2650,12 +2653,12 @@
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
       <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
+      <c r="V78" s="1"/>
       <c r="W78" s="7"/>
     </row>
     <row r="79" spans="1:23">
       <c r="A79" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B79" s="5"/>
       <c r="D79" s="5"/>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="80" spans="1:23">
       <c r="A80" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B80" s="5"/>
       <c r="D80" s="5"/>
@@ -2698,12 +2701,12 @@
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
-      <c r="V80" s="1"/>
+      <c r="V80" s="5"/>
       <c r="W80" s="7"/>
     </row>
     <row r="81" spans="1:23">
       <c r="A81" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B81" s="5"/>
       <c r="D81" s="5"/>
@@ -2727,7 +2730,7 @@
     </row>
     <row r="82" spans="1:23">
       <c r="A82" s="12" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B82" s="5"/>
       <c r="D82" s="5"/>
@@ -2751,7 +2754,7 @@
     </row>
     <row r="83" spans="1:23">
       <c r="A83" s="12" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B83" s="5"/>
       <c r="D83" s="5"/>
@@ -2775,7 +2778,7 @@
     </row>
     <row r="84" spans="1:23">
       <c r="A84" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B84" s="5"/>
       <c r="D84" s="5"/>
@@ -2799,7 +2802,7 @@
     </row>
     <row r="85" spans="1:23">
       <c r="A85" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B85" s="5"/>
       <c r="D85" s="5"/>
@@ -2818,12 +2821,12 @@
       <c r="S85" s="5"/>
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
-      <c r="V85" s="5"/>
+      <c r="V85" s="1"/>
       <c r="W85" s="7"/>
     </row>
     <row r="86" spans="1:23">
       <c r="A86" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B86" s="5"/>
       <c r="D86" s="5"/>
@@ -2847,7 +2850,7 @@
     </row>
     <row r="87" spans="1:23">
       <c r="A87" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B87" s="5"/>
       <c r="D87" s="5"/>
@@ -2871,7 +2874,7 @@
     </row>
     <row r="88" spans="1:23">
       <c r="A88" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B88" s="5"/>
       <c r="D88" s="5"/>
@@ -2895,7 +2898,7 @@
     </row>
     <row r="89" spans="1:23">
       <c r="A89" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B89" s="5"/>
       <c r="D89" s="5"/>
@@ -2919,7 +2922,7 @@
     </row>
     <row r="90" spans="1:23">
       <c r="A90" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B90" s="5"/>
       <c r="D90" s="5"/>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="91" spans="1:23">
       <c r="A91" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B91" s="5"/>
       <c r="D91" s="5"/>
@@ -2967,7 +2970,7 @@
     </row>
     <row r="92" spans="1:23">
       <c r="A92" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B92" s="5"/>
       <c r="D92" s="5"/>
@@ -2991,7 +2994,7 @@
     </row>
     <row r="93" spans="1:23">
       <c r="A93" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="5"/>
       <c r="D93" s="5"/>
@@ -3015,7 +3018,7 @@
     </row>
     <row r="94" spans="1:23">
       <c r="A94" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="5"/>
       <c r="D94" s="5"/>
@@ -3039,7 +3042,7 @@
     </row>
     <row r="95" spans="1:23">
       <c r="A95" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="5"/>
       <c r="D95" s="5"/>
@@ -3063,10 +3066,9 @@
     </row>
     <row r="96" spans="1:23">
       <c r="A96" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="H96" s="5"/>
@@ -3088,7 +3090,7 @@
     </row>
     <row r="97" spans="1:23">
       <c r="A97" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3113,7 +3115,7 @@
     </row>
     <row r="98" spans="1:23">
       <c r="A98" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3138,7 +3140,7 @@
     </row>
     <row r="99" spans="1:23">
       <c r="A99" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3163,7 +3165,7 @@
     </row>
     <row r="100" spans="1:23">
       <c r="A100" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3188,7 +3190,7 @@
     </row>
     <row r="101" spans="1:23">
       <c r="A101" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3208,12 +3210,12 @@
       <c r="S101" s="5"/>
       <c r="T101" s="5"/>
       <c r="U101" s="5"/>
-      <c r="V101" s="1"/>
+      <c r="V101" s="5"/>
       <c r="W101" s="7"/>
     </row>
     <row r="102" spans="1:23">
       <c r="A102" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3237,7 +3239,9 @@
       <c r="W102" s="7"/>
     </row>
     <row r="103" spans="1:23">
-      <c r="A103" s="3"/>
+      <c r="A103" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -3256,7 +3260,7 @@
       <c r="S103" s="5"/>
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
-      <c r="V103" s="5"/>
+      <c r="V103" s="1"/>
       <c r="W103" s="7"/>
     </row>
     <row r="104" spans="1:23">
@@ -3394,7 +3398,7 @@
       <c r="S109" s="5"/>
       <c r="T109" s="5"/>
       <c r="U109" s="5"/>
-      <c r="V109" s="1"/>
+      <c r="V109" s="5"/>
       <c r="W109" s="7"/>
     </row>
     <row r="110" spans="1:23">
@@ -3421,6 +3425,7 @@
       <c r="W110" s="7"/>
     </row>
     <row r="111" spans="1:23">
+      <c r="A111" s="3"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -3439,7 +3444,7 @@
       <c r="S111" s="5"/>
       <c r="T111" s="5"/>
       <c r="U111" s="5"/>
-      <c r="V111" s="5"/>
+      <c r="V111" s="1"/>
       <c r="W111" s="7"/>
     </row>
     <row r="112" spans="1:23">
@@ -3615,7 +3620,7 @@
       <c r="S119" s="5"/>
       <c r="T119" s="5"/>
       <c r="U119" s="5"/>
-      <c r="V119" s="1"/>
+      <c r="V119" s="5"/>
       <c r="W119" s="7"/>
     </row>
     <row r="120" spans="1:23">
@@ -3707,7 +3712,6 @@
       <c r="W123" s="7"/>
     </row>
     <row r="124" spans="1:23">
-      <c r="A124" s="3"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -3730,6 +3734,7 @@
       <c r="W124" s="7"/>
     </row>
     <row r="125" spans="1:23">
+      <c r="A125" s="3"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -3836,7 +3841,7 @@
       <c r="S129" s="5"/>
       <c r="T129" s="5"/>
       <c r="U129" s="5"/>
-      <c r="V129" s="5"/>
+      <c r="V129" s="1"/>
       <c r="W129" s="7"/>
     </row>
     <row r="130" spans="1:23">
@@ -3862,7 +3867,6 @@
       <c r="W130" s="7"/>
     </row>
     <row r="131" spans="1:23">
-      <c r="A131" s="3"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -3881,10 +3885,11 @@
       <c r="S131" s="5"/>
       <c r="T131" s="5"/>
       <c r="U131" s="5"/>
-      <c r="V131" s="1"/>
+      <c r="V131" s="5"/>
       <c r="W131" s="7"/>
     </row>
     <row r="132" spans="1:23">
+      <c r="A132" s="3"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -3903,11 +3908,10 @@
       <c r="S132" s="5"/>
       <c r="T132" s="5"/>
       <c r="U132" s="5"/>
-      <c r="V132" s="5"/>
+      <c r="V132" s="1"/>
       <c r="W132" s="7"/>
     </row>
     <row r="133" spans="1:23">
-      <c r="A133" s="3"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -3930,6 +3934,7 @@
       <c r="W133" s="7"/>
     </row>
     <row r="134" spans="1:23">
+      <c r="A134" s="3"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -3948,7 +3953,7 @@
       <c r="S134" s="5"/>
       <c r="T134" s="5"/>
       <c r="U134" s="5"/>
-      <c r="V134" s="1"/>
+      <c r="V134" s="5"/>
       <c r="W134" s="7"/>
     </row>
     <row r="135" spans="1:23">
@@ -4146,7 +4151,7 @@
       <c r="S143" s="5"/>
       <c r="T143" s="5"/>
       <c r="U143" s="5"/>
-      <c r="V143" s="5"/>
+      <c r="V143" s="1"/>
       <c r="W143" s="7"/>
     </row>
     <row r="144" spans="1:23">
@@ -4190,7 +4195,7 @@
       <c r="S145" s="5"/>
       <c r="T145" s="5"/>
       <c r="U145" s="5"/>
-      <c r="V145" s="1"/>
+      <c r="V145" s="5"/>
       <c r="W145" s="7"/>
     </row>
     <row r="146" spans="2:23">
@@ -4212,7 +4217,7 @@
       <c r="S146" s="5"/>
       <c r="T146" s="5"/>
       <c r="U146" s="5"/>
-      <c r="V146" s="5"/>
+      <c r="V146" s="1"/>
       <c r="W146" s="7"/>
     </row>
     <row r="147" spans="2:23">
@@ -4278,7 +4283,7 @@
       <c r="S149" s="5"/>
       <c r="T149" s="5"/>
       <c r="U149" s="5"/>
-      <c r="V149" s="1"/>
+      <c r="V149" s="5"/>
       <c r="W149" s="7"/>
     </row>
     <row r="150" spans="2:23">
@@ -4322,7 +4327,7 @@
       <c r="S151" s="5"/>
       <c r="T151" s="5"/>
       <c r="U151" s="5"/>
-      <c r="V151" s="5"/>
+      <c r="V151" s="1"/>
       <c r="W151" s="7"/>
     </row>
     <row r="152" spans="2:23">
@@ -4674,7 +4679,7 @@
       <c r="S167" s="5"/>
       <c r="T167" s="5"/>
       <c r="U167" s="5"/>
-      <c r="V167" s="1"/>
+      <c r="V167" s="5"/>
       <c r="W167" s="7"/>
     </row>
     <row r="168" spans="2:23">
@@ -4718,7 +4723,7 @@
       <c r="S169" s="5"/>
       <c r="T169" s="5"/>
       <c r="U169" s="5"/>
-      <c r="V169" s="5"/>
+      <c r="V169" s="1"/>
       <c r="W169" s="7"/>
     </row>
     <row r="170" spans="2:23">
@@ -4762,7 +4767,7 @@
       <c r="S171" s="5"/>
       <c r="T171" s="5"/>
       <c r="U171" s="5"/>
-      <c r="V171" s="1"/>
+      <c r="V171" s="5"/>
       <c r="W171" s="7"/>
     </row>
     <row r="172" spans="2:23">
@@ -4806,7 +4811,7 @@
       <c r="S173" s="5"/>
       <c r="T173" s="5"/>
       <c r="U173" s="5"/>
-      <c r="V173" s="5"/>
+      <c r="V173" s="1"/>
       <c r="W173" s="7"/>
     </row>
     <row r="174" spans="2:23">
@@ -5158,7 +5163,7 @@
       <c r="S189" s="5"/>
       <c r="T189" s="5"/>
       <c r="U189" s="5"/>
-      <c r="V189" s="1"/>
+      <c r="V189" s="5"/>
       <c r="W189" s="7"/>
     </row>
     <row r="190" spans="2:23">
@@ -5246,7 +5251,7 @@
       <c r="S193" s="5"/>
       <c r="T193" s="5"/>
       <c r="U193" s="5"/>
-      <c r="V193" s="5"/>
+      <c r="V193" s="1"/>
       <c r="W193" s="7"/>
     </row>
     <row r="194" spans="2:23">
@@ -5334,7 +5339,7 @@
       <c r="S197" s="5"/>
       <c r="T197" s="5"/>
       <c r="U197" s="5"/>
-      <c r="V197" s="1"/>
+      <c r="V197" s="5"/>
       <c r="W197" s="7"/>
     </row>
     <row r="198" spans="2:23">
@@ -5378,7 +5383,7 @@
       <c r="S199" s="5"/>
       <c r="T199" s="5"/>
       <c r="U199" s="5"/>
-      <c r="V199" s="5"/>
+      <c r="V199" s="1"/>
       <c r="W199" s="7"/>
     </row>
     <row r="200" spans="2:23">
@@ -5598,7 +5603,7 @@
       <c r="S209" s="5"/>
       <c r="T209" s="5"/>
       <c r="U209" s="5"/>
-      <c r="V209" s="1"/>
+      <c r="V209" s="5"/>
       <c r="W209" s="7"/>
     </row>
     <row r="210" spans="1:23">
@@ -5624,7 +5629,6 @@
       <c r="W210" s="7"/>
     </row>
     <row r="211" spans="1:23">
-      <c r="A211" s="3"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
@@ -5643,10 +5647,11 @@
       <c r="S211" s="5"/>
       <c r="T211" s="5"/>
       <c r="U211" s="5"/>
-      <c r="V211" s="5"/>
+      <c r="V211" s="1"/>
       <c r="W211" s="7"/>
     </row>
     <row r="212" spans="1:23">
+      <c r="A212" s="3"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
@@ -5669,7 +5674,6 @@
       <c r="W212" s="7"/>
     </row>
     <row r="213" spans="1:23">
-      <c r="A213" s="8"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
@@ -5692,7 +5696,7 @@
       <c r="W213" s="7"/>
     </row>
     <row r="214" spans="1:23">
-      <c r="A214" s="3"/>
+      <c r="A214" s="8"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
@@ -5734,10 +5738,11 @@
       <c r="S215" s="5"/>
       <c r="T215" s="5"/>
       <c r="U215" s="5"/>
-      <c r="V215" s="1"/>
+      <c r="V215" s="5"/>
       <c r="W215" s="7"/>
     </row>
     <row r="216" spans="1:23">
+      <c r="A216" s="3"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
@@ -5778,7 +5783,7 @@
       <c r="S217" s="5"/>
       <c r="T217" s="5"/>
       <c r="U217" s="5"/>
-      <c r="V217" s="5"/>
+      <c r="V217" s="1"/>
       <c r="W217" s="7"/>
     </row>
     <row r="218" spans="1:23">
@@ -6222,7 +6227,6 @@
       <c r="W237" s="7"/>
     </row>
     <row r="238" spans="1:23">
-      <c r="A238" s="8"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
@@ -6245,6 +6249,7 @@
       <c r="W238" s="7"/>
     </row>
     <row r="239" spans="1:23">
+      <c r="A239" s="8"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
@@ -6267,7 +6272,6 @@
       <c r="W239" s="7"/>
     </row>
     <row r="240" spans="1:23">
-      <c r="A240" s="8"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
@@ -6290,7 +6294,7 @@
       <c r="W240" s="7"/>
     </row>
     <row r="241" spans="1:23">
-      <c r="A241" s="3"/>
+      <c r="A241" s="8"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
@@ -6313,6 +6317,7 @@
       <c r="W241" s="7"/>
     </row>
     <row r="242" spans="1:23">
+      <c r="A242" s="3"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
@@ -6353,7 +6358,7 @@
       <c r="S243" s="5"/>
       <c r="T243" s="5"/>
       <c r="U243" s="5"/>
-      <c r="V243" s="1"/>
+      <c r="V243" s="5"/>
       <c r="W243" s="7"/>
     </row>
     <row r="244" spans="1:23">
@@ -6379,7 +6384,6 @@
       <c r="W244" s="7"/>
     </row>
     <row r="245" spans="1:23">
-      <c r="A245" s="8"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
@@ -6398,10 +6402,11 @@
       <c r="S245" s="5"/>
       <c r="T245" s="5"/>
       <c r="U245" s="5"/>
-      <c r="V245" s="5"/>
+      <c r="V245" s="1"/>
       <c r="W245" s="7"/>
     </row>
     <row r="246" spans="1:23">
+      <c r="A246" s="8"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
@@ -6424,7 +6429,6 @@
       <c r="W246" s="7"/>
     </row>
     <row r="247" spans="1:23">
-      <c r="A247" s="8"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
@@ -6443,10 +6447,11 @@
       <c r="S247" s="5"/>
       <c r="T247" s="5"/>
       <c r="U247" s="5"/>
-      <c r="V247" s="1"/>
+      <c r="V247" s="5"/>
       <c r="W247" s="7"/>
     </row>
     <row r="248" spans="1:23">
+      <c r="A248" s="8"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
@@ -6465,7 +6470,7 @@
       <c r="S248" s="5"/>
       <c r="T248" s="5"/>
       <c r="U248" s="5"/>
-      <c r="V248" s="5"/>
+      <c r="V248" s="1"/>
       <c r="W248" s="7"/>
     </row>
     <row r="249" spans="1:23">
@@ -6509,7 +6514,7 @@
       <c r="S250" s="5"/>
       <c r="T250" s="5"/>
       <c r="U250" s="5"/>
-      <c r="V250" s="1"/>
+      <c r="V250" s="5"/>
       <c r="W250" s="7"/>
     </row>
     <row r="251" spans="1:23">
@@ -6597,7 +6602,7 @@
       <c r="S254" s="5"/>
       <c r="T254" s="5"/>
       <c r="U254" s="5"/>
-      <c r="V254" s="5"/>
+      <c r="V254" s="1"/>
       <c r="W254" s="7"/>
     </row>
     <row r="255" spans="1:23">
@@ -6685,7 +6690,7 @@
       <c r="S258" s="5"/>
       <c r="T258" s="5"/>
       <c r="U258" s="5"/>
-      <c r="V258" s="1"/>
+      <c r="V258" s="5"/>
       <c r="W258" s="7"/>
     </row>
     <row r="259" spans="2:23">
@@ -6729,7 +6734,7 @@
       <c r="S260" s="5"/>
       <c r="T260" s="5"/>
       <c r="U260" s="5"/>
-      <c r="V260" s="5"/>
+      <c r="V260" s="1"/>
       <c r="W260" s="7"/>
     </row>
     <row r="261" spans="2:23">
@@ -7301,7 +7306,7 @@
       <c r="S286" s="5"/>
       <c r="T286" s="5"/>
       <c r="U286" s="5"/>
-      <c r="V286" s="1"/>
+      <c r="V286" s="5"/>
       <c r="W286" s="7"/>
     </row>
     <row r="287" spans="2:23">
@@ -7345,7 +7350,7 @@
       <c r="S288" s="5"/>
       <c r="T288" s="5"/>
       <c r="U288" s="5"/>
-      <c r="V288" s="5"/>
+      <c r="V288" s="1"/>
       <c r="W288" s="7"/>
     </row>
     <row r="289" spans="2:23">
@@ -7389,7 +7394,7 @@
       <c r="S290" s="5"/>
       <c r="T290" s="5"/>
       <c r="U290" s="5"/>
-      <c r="V290" s="1"/>
+      <c r="V290" s="5"/>
       <c r="W290" s="7"/>
     </row>
     <row r="291" spans="2:23">
@@ -7411,7 +7416,7 @@
       <c r="S291" s="5"/>
       <c r="T291" s="5"/>
       <c r="U291" s="5"/>
-      <c r="V291" s="5"/>
+      <c r="V291" s="1"/>
       <c r="W291" s="7"/>
     </row>
     <row r="292" spans="2:23">
@@ -7961,7 +7966,7 @@
       <c r="S316" s="5"/>
       <c r="T316" s="5"/>
       <c r="U316" s="5"/>
-      <c r="V316" s="1"/>
+      <c r="V316" s="5"/>
       <c r="W316" s="7"/>
     </row>
     <row r="317" spans="2:23">
@@ -8071,7 +8076,7 @@
       <c r="S321" s="5"/>
       <c r="T321" s="5"/>
       <c r="U321" s="5"/>
-      <c r="V321" s="5"/>
+      <c r="V321" s="1"/>
       <c r="W321" s="7"/>
     </row>
     <row r="322" spans="2:23">
@@ -8159,7 +8164,7 @@
       <c r="S325" s="5"/>
       <c r="T325" s="5"/>
       <c r="U325" s="5"/>
-      <c r="V325" s="1"/>
+      <c r="V325" s="5"/>
       <c r="W325" s="7"/>
     </row>
     <row r="326" spans="2:23">
@@ -8203,7 +8208,7 @@
       <c r="S327" s="5"/>
       <c r="T327" s="5"/>
       <c r="U327" s="5"/>
-      <c r="V327" s="5"/>
+      <c r="V327" s="1"/>
       <c r="W327" s="7"/>
     </row>
     <row r="328" spans="2:23">
@@ -8247,7 +8252,7 @@
       <c r="S329" s="5"/>
       <c r="T329" s="5"/>
       <c r="U329" s="5"/>
-      <c r="V329" s="1"/>
+      <c r="V329" s="5"/>
       <c r="W329" s="7"/>
     </row>
     <row r="330" spans="2:23">
@@ -8291,7 +8296,7 @@
       <c r="S331" s="5"/>
       <c r="T331" s="5"/>
       <c r="U331" s="5"/>
-      <c r="V331" s="5"/>
+      <c r="V331" s="1"/>
       <c r="W331" s="7"/>
     </row>
     <row r="332" spans="2:23">
@@ -8643,7 +8648,7 @@
       <c r="S347" s="5"/>
       <c r="T347" s="5"/>
       <c r="U347" s="5"/>
-      <c r="V347" s="1"/>
+      <c r="V347" s="5"/>
       <c r="W347" s="7"/>
     </row>
     <row r="348" spans="2:23">
@@ -8687,7 +8692,7 @@
       <c r="S349" s="5"/>
       <c r="T349" s="5"/>
       <c r="U349" s="5"/>
-      <c r="V349" s="5"/>
+      <c r="V349" s="1"/>
       <c r="W349" s="7"/>
     </row>
     <row r="350" spans="2:23">
@@ -8819,7 +8824,7 @@
       <c r="S355" s="5"/>
       <c r="T355" s="5"/>
       <c r="U355" s="5"/>
-      <c r="V355" s="1"/>
+      <c r="V355" s="5"/>
       <c r="W355" s="7"/>
     </row>
     <row r="356" spans="2:23">
@@ -8863,7 +8868,7 @@
       <c r="S357" s="5"/>
       <c r="T357" s="5"/>
       <c r="U357" s="5"/>
-      <c r="V357" s="5"/>
+      <c r="V357" s="1"/>
       <c r="W357" s="7"/>
     </row>
     <row r="358" spans="2:23">
@@ -8907,7 +8912,7 @@
       <c r="S359" s="5"/>
       <c r="T359" s="5"/>
       <c r="U359" s="5"/>
-      <c r="V359" s="1"/>
+      <c r="V359" s="5"/>
       <c r="W359" s="7"/>
     </row>
     <row r="360" spans="2:23">
@@ -8929,7 +8934,7 @@
       <c r="S360" s="5"/>
       <c r="T360" s="5"/>
       <c r="U360" s="5"/>
-      <c r="V360" s="5"/>
+      <c r="V360" s="1"/>
       <c r="W360" s="7"/>
     </row>
     <row r="361" spans="2:23">
@@ -9391,7 +9396,7 @@
       <c r="S381" s="5"/>
       <c r="T381" s="5"/>
       <c r="U381" s="5"/>
-      <c r="V381" s="1"/>
+      <c r="V381" s="5"/>
       <c r="W381" s="7"/>
     </row>
     <row r="382" spans="2:23">
@@ -9501,7 +9506,7 @@
       <c r="S386" s="5"/>
       <c r="T386" s="5"/>
       <c r="U386" s="5"/>
-      <c r="V386" s="5"/>
+      <c r="V386" s="1"/>
       <c r="W386" s="7"/>
     </row>
     <row r="387" spans="2:23">
@@ -9589,7 +9594,7 @@
       <c r="S390" s="5"/>
       <c r="T390" s="5"/>
       <c r="U390" s="5"/>
-      <c r="V390" s="1"/>
+      <c r="V390" s="5"/>
       <c r="W390" s="7"/>
     </row>
     <row r="391" spans="2:23">
@@ -9633,7 +9638,7 @@
       <c r="S392" s="5"/>
       <c r="T392" s="5"/>
       <c r="U392" s="5"/>
-      <c r="V392" s="5"/>
+      <c r="V392" s="1"/>
       <c r="W392" s="7"/>
     </row>
     <row r="393" spans="2:23">
@@ -9677,7 +9682,7 @@
       <c r="S394" s="5"/>
       <c r="T394" s="5"/>
       <c r="U394" s="5"/>
-      <c r="V394" s="1"/>
+      <c r="V394" s="5"/>
       <c r="W394" s="7"/>
     </row>
     <row r="395" spans="2:23">
@@ -9721,7 +9726,7 @@
       <c r="S396" s="5"/>
       <c r="T396" s="5"/>
       <c r="U396" s="5"/>
-      <c r="V396" s="5"/>
+      <c r="V396" s="1"/>
       <c r="W396" s="7"/>
     </row>
     <row r="397" spans="2:23">
@@ -9989,7 +9994,6 @@
       <c r="W408" s="7"/>
     </row>
     <row r="409" spans="1:23">
-      <c r="A409" s="8"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
@@ -10012,6 +10016,7 @@
       <c r="W409" s="7"/>
     </row>
     <row r="410" spans="1:23">
+      <c r="A410" s="8"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
@@ -10074,7 +10079,7 @@
       <c r="S412" s="5"/>
       <c r="T412" s="5"/>
       <c r="U412" s="5"/>
-      <c r="V412" s="1"/>
+      <c r="V412" s="5"/>
       <c r="W412" s="7"/>
     </row>
     <row r="413" spans="1:23">
@@ -10118,7 +10123,7 @@
       <c r="S414" s="5"/>
       <c r="T414" s="5"/>
       <c r="U414" s="5"/>
-      <c r="V414" s="5"/>
+      <c r="V414" s="1"/>
       <c r="W414" s="7"/>
     </row>
     <row r="415" spans="1:23">
@@ -10144,7 +10149,6 @@
       <c r="W415" s="7"/>
     </row>
     <row r="416" spans="1:23">
-      <c r="A416" s="3"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
@@ -10167,7 +10171,7 @@
       <c r="W416" s="7"/>
     </row>
     <row r="417" spans="1:23">
-      <c r="A417" s="8"/>
+      <c r="A417" s="3"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
@@ -10190,6 +10194,7 @@
       <c r="W417" s="7"/>
     </row>
     <row r="418" spans="1:23">
+      <c r="A418" s="8"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
@@ -10252,7 +10257,7 @@
       <c r="S420" s="5"/>
       <c r="T420" s="5"/>
       <c r="U420" s="5"/>
-      <c r="V420" s="1"/>
+      <c r="V420" s="5"/>
       <c r="W420" s="7"/>
     </row>
     <row r="421" spans="1:23">
@@ -10296,7 +10301,7 @@
       <c r="S422" s="5"/>
       <c r="T422" s="5"/>
       <c r="U422" s="5"/>
-      <c r="V422" s="5"/>
+      <c r="V422" s="1"/>
       <c r="W422" s="7"/>
     </row>
     <row r="423" spans="1:23">
@@ -10340,8 +10345,30 @@
       <c r="S424" s="5"/>
       <c r="T424" s="5"/>
       <c r="U424" s="5"/>
-      <c r="V424" s="1"/>
+      <c r="V424" s="5"/>
       <c r="W424" s="7"/>
+    </row>
+    <row r="425" spans="1:23">
+      <c r="B425" s="5"/>
+      <c r="C425" s="5"/>
+      <c r="D425" s="5"/>
+      <c r="E425" s="5"/>
+      <c r="H425" s="5"/>
+      <c r="I425" s="5"/>
+      <c r="J425" s="5"/>
+      <c r="K425" s="5"/>
+      <c r="L425" s="5"/>
+      <c r="M425" s="6"/>
+      <c r="N425" s="5"/>
+      <c r="O425" s="5"/>
+      <c r="P425" s="5"/>
+      <c r="Q425" s="5"/>
+      <c r="R425" s="5"/>
+      <c r="S425" s="5"/>
+      <c r="T425" s="5"/>
+      <c r="U425" s="5"/>
+      <c r="V425" s="1"/>
+      <c r="W425" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/database/MechanicalEngineering/ME_Course_database.xlsx
+++ b/database/MechanicalEngineering/ME_Course_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\20110706\TaiGer_Transcript-Program_Comparer\database\MechanicalEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C8CECE-C424-45BE-88F6-DF4839A3B677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB795D89-4E6B-4DA8-B99F-DA76D40F9BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A678F9F-A21C-41A5-9AEE-FA5C928DC178}"/>
+    <workbookView xWindow="-6975" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{4A678F9F-A21C-41A5-9AEE-FA5C928DC178}"/>
   </bookViews>
   <sheets>
     <sheet name="All_ME_Courses" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>普通物理學(一)</t>
   </si>
@@ -334,13 +334,334 @@
   </si>
   <si>
     <t>製造學</t>
+  </si>
+  <si>
+    <t>所有科目_英語</t>
+  </si>
+  <si>
+    <t>Calculus (1)</t>
+  </si>
+  <si>
+    <t>Calculus (2)</t>
+  </si>
+  <si>
+    <t>Linear algebra</t>
+  </si>
+  <si>
+    <t>Differential equation</t>
+  </si>
+  <si>
+    <t>discrete mathematics</t>
+  </si>
+  <si>
+    <t>Probability and Statistics</t>
+  </si>
+  <si>
+    <t>Numerical Analysis</t>
+  </si>
+  <si>
+    <t>Complex function</t>
+  </si>
+  <si>
+    <t>General Physics (1)</t>
+  </si>
+  <si>
+    <t>General Physics (2)</t>
+  </si>
+  <si>
+    <t>General Physics Experiment (1)</t>
+  </si>
+  <si>
+    <t>General Physics Experiment (2)</t>
+  </si>
+  <si>
+    <t>Modern physics</t>
+  </si>
+  <si>
+    <t>Introduction to Computer</t>
+  </si>
+  <si>
+    <t>Basic programming one</t>
+  </si>
+  <si>
+    <t>Basic programming two</t>
+  </si>
+  <si>
+    <t>Mechanical drawing</t>
+  </si>
+  <si>
+    <t>Embedded programming</t>
+  </si>
+  <si>
+    <t>Object-oriented programming</t>
+  </si>
+  <si>
+    <t>Automatic control (1)</t>
+  </si>
+  <si>
+    <t>Automatic control (two)</t>
+  </si>
+  <si>
+    <t>Smart control</t>
+  </si>
+  <si>
+    <t>Dynamic system analysis</t>
+  </si>
+  <si>
+    <t>Control System</t>
+  </si>
+  <si>
+    <t>Non-linear control system</t>
+  </si>
+  <si>
+    <t>Electronic Experiment (1)</t>
+  </si>
+  <si>
+    <t>Electronic Experiment (2)</t>
+  </si>
+  <si>
+    <t>Electronics (1)</t>
+  </si>
+  <si>
+    <t>Electronics (2)</t>
+  </si>
+  <si>
+    <t>Electronics (3)</t>
+  </si>
+  <si>
+    <t>Digital logic</t>
+  </si>
+  <si>
+    <t>Circuits (1)</t>
+  </si>
+  <si>
+    <t>Circuits (2)</t>
+  </si>
+  <si>
+    <t>Signal and system</t>
+  </si>
+  <si>
+    <t>Electromagnetism (1)</t>
+  </si>
+  <si>
+    <t>Electromagnetism (2)</t>
+  </si>
+  <si>
+    <t>Vector analysis</t>
+  </si>
+  <si>
+    <t>Renewable energy system</t>
+  </si>
+  <si>
+    <t>statics</t>
+  </si>
+  <si>
+    <t>dynamics</t>
+  </si>
+  <si>
+    <t>Thermodynamics One</t>
+  </si>
+  <si>
+    <t>Thermodynamics II</t>
+  </si>
+  <si>
+    <t>Fluid Mechanics One</t>
+  </si>
+  <si>
+    <t>Fluid Mechanics II</t>
+  </si>
+  <si>
+    <t>Heat treatment technology</t>
+  </si>
+  <si>
+    <t>Heat transfer</t>
+  </si>
+  <si>
+    <t>Mobility</t>
+  </si>
+  <si>
+    <t>Electronic components and materials</t>
+  </si>
+  <si>
+    <t>acoustics</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Microsystem manufacturing</t>
+  </si>
+  <si>
+    <t>Electric motor</t>
+  </si>
+  <si>
+    <t>Power Electronics</t>
+  </si>
+  <si>
+    <t>Power Electronics Experiment</t>
+  </si>
+  <si>
+    <t>Engineering Materials</t>
+  </si>
+  <si>
+    <t>Engineering Graphics</t>
+  </si>
+  <si>
+    <t>Factory internship</t>
+  </si>
+  <si>
+    <t>Introduction to Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>Measurement principle and mechanics experiment</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering Practice</t>
+  </si>
+  <si>
+    <t>Principles of Mechanical Design</t>
+  </si>
+  <si>
+    <t>General Chemistry</t>
+  </si>
+  <si>
+    <t>Mechanics of Materials One</t>
+  </si>
+  <si>
+    <t>Mechanics of Materials II</t>
+  </si>
+  <si>
+    <t>Machine made</t>
+  </si>
+  <si>
+    <t>Materials Science One</t>
+  </si>
+  <si>
+    <t>Materials Science II</t>
+  </si>
+  <si>
+    <t>Material properties</t>
+  </si>
+  <si>
+    <t>Material structure and physical properties</t>
+  </si>
+  <si>
+    <t>Mechanical vibration</t>
+  </si>
+  <si>
+    <t>Mechanical system analysis</t>
+  </si>
+  <si>
+    <t>Mechatronics</t>
+  </si>
+  <si>
+    <t>Computer-aided analysis</t>
+  </si>
+  <si>
+    <t>Vehicle dynamics</t>
+  </si>
+  <si>
+    <t>internal combustion engine</t>
+  </si>
+  <si>
+    <t>Principles of Automotive Engineering</t>
+  </si>
+  <si>
+    <t>Thermomechanics</t>
+  </si>
+  <si>
+    <t>Automotive Design</t>
+  </si>
+  <si>
+    <t>Automatic transmission</t>
+  </si>
+  <si>
+    <t>Vehicle control system</t>
+  </si>
+  <si>
+    <t>Suspension system</t>
+  </si>
+  <si>
+    <t>Institutional</t>
+  </si>
+  <si>
+    <t>Mechanism design</t>
+  </si>
+  <si>
+    <t>Mechanical Design</t>
+  </si>
+  <si>
+    <t>Mechanical Drawing</t>
+  </si>
+  <si>
+    <t>Automation Technology</t>
+  </si>
+  <si>
+    <t>Medical engineering materials</t>
+  </si>
+  <si>
+    <t>Introduction to Aerospace Engineering</t>
+  </si>
+  <si>
+    <t>MEMS Theory</t>
+  </si>
+  <si>
+    <t>wind power</t>
+  </si>
+  <si>
+    <t>Mechanical process pretreatment</t>
+  </si>
+  <si>
+    <t>Electric drive</t>
+  </si>
+  <si>
+    <t>Material flow and logistics</t>
+  </si>
+  <si>
+    <t>Lightweight structure</t>
+  </si>
+  <si>
+    <t>Machining</t>
+  </si>
+  <si>
+    <t>Logistics management</t>
+  </si>
+  <si>
+    <t>Experiment planning and statistics</t>
+  </si>
+  <si>
+    <t>Turbo mechanism</t>
+  </si>
+  <si>
+    <t>Aircraft engine</t>
+  </si>
+  <si>
+    <t>Vibroacoustics</t>
+  </si>
+  <si>
+    <t>Plastic Engineering</t>
+  </si>
+  <si>
+    <t>Energy system</t>
+  </si>
+  <si>
+    <t>資料結構</t>
+  </si>
+  <si>
+    <t>演算法</t>
+  </si>
+  <si>
+    <t>Data Structure</t>
+  </si>
+  <si>
+    <t>Algorithms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -392,6 +713,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Linux Libertine G"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -418,7 +757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,6 +790,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -766,23 +1114,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C323114-BC5F-49C1-9F53-9EA9AB7CC060}">
-  <dimension ref="A1:W425"/>
+  <dimension ref="A1:W427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.09765625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="33.09765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.19921875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -807,8 +1158,10 @@
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="H2" s="4"/>
@@ -832,8 +1185,10 @@
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="15"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="H3" s="4"/>
@@ -857,8 +1212,10 @@
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="15"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="H4" s="4"/>
@@ -882,8 +1239,10 @@
       <c r="A5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="15"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="H5" s="5"/>
@@ -907,8 +1266,10 @@
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="16"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="H6" s="5"/>
@@ -932,7 +1293,10 @@
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="16"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="H7" s="5"/>
@@ -956,7 +1320,10 @@
       <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="16"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="H8" s="5"/>
@@ -980,7 +1347,10 @@
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="16"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="H9" s="5"/>
@@ -1004,7 +1374,10 @@
       <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="16"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="H10" s="5"/>
@@ -1028,7 +1401,10 @@
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="16"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="H11" s="5"/>
@@ -1052,7 +1428,10 @@
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="16"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="H12" s="5"/>
@@ -1076,7 +1455,10 @@
       <c r="A13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="16"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="H13" s="5"/>
@@ -1100,7 +1482,10 @@
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="16"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="H14" s="5"/>
@@ -1124,7 +1509,10 @@
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="16"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="H15" s="5"/>
@@ -1148,7 +1536,10 @@
       <c r="A16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="16"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="H16" s="5"/>
@@ -1172,7 +1563,10 @@
       <c r="A17" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="16"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="H17" s="5"/>
@@ -1196,7 +1590,10 @@
       <c r="A18" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="16"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="H18" s="5"/>
@@ -1220,7 +1617,10 @@
       <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="16"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="H19" s="5"/>
@@ -1244,7 +1644,10 @@
       <c r="A20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="16"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="H20" s="5"/>
@@ -1266,9 +1669,12 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="16"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="H21" s="5"/>
@@ -1290,9 +1696,12 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="16"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="H22" s="5"/>
@@ -1309,14 +1718,17 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
-      <c r="V22" s="1"/>
+      <c r="V22" s="5"/>
       <c r="W22" s="7"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="16"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="H23" s="5"/>
@@ -1333,14 +1745,17 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
-      <c r="V23" s="1"/>
+      <c r="V23" s="5"/>
       <c r="W23" s="7"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="16"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="H24" s="5"/>
@@ -1362,9 +1777,12 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="16"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="H25" s="5"/>
@@ -1385,10 +1803,13 @@
       <c r="W25" s="7"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5"/>
+      <c r="A26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="16"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="H26" s="5"/>
@@ -1410,9 +1831,12 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="16"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="H27" s="5"/>
@@ -1433,10 +1857,13 @@
       <c r="W27" s="7"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="5"/>
+      <c r="A28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="16"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="H28" s="5"/>
@@ -1458,9 +1885,12 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="16"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="H29" s="5"/>
@@ -1482,9 +1912,12 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="16"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="H30" s="5"/>
@@ -1506,9 +1939,12 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="16"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="H31" s="5"/>
@@ -1530,9 +1966,12 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="16"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="H32" s="5"/>
@@ -1554,9 +1993,12 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="16"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="H33" s="5"/>
@@ -1573,14 +2015,17 @@
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
+      <c r="V33" s="1"/>
       <c r="W33" s="7"/>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="16"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="H34" s="5"/>
@@ -1597,14 +2042,17 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
+      <c r="V34" s="1"/>
       <c r="W34" s="7"/>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="16"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="H35" s="5"/>
@@ -1626,9 +2074,12 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="16"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="H36" s="5"/>
@@ -1650,9 +2101,12 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="16"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="H37" s="5"/>
@@ -1674,9 +2128,12 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="16"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="H38" s="5"/>
@@ -1698,9 +2155,12 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="16"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="H39" s="5"/>
@@ -1717,14 +2177,17 @@
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
-      <c r="V39" s="1"/>
+      <c r="V39" s="5"/>
       <c r="W39" s="7"/>
     </row>
     <row r="40" spans="1:23">
-      <c r="A40" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="5"/>
+      <c r="A40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="16"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="H40" s="5"/>
@@ -1741,14 +2204,17 @@
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
-      <c r="V40" s="1"/>
+      <c r="V40" s="5"/>
       <c r="W40" s="7"/>
     </row>
     <row r="41" spans="1:23">
-      <c r="A41" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="5"/>
+      <c r="A41" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="16"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="H41" s="5"/>
@@ -1769,10 +2235,13 @@
       <c r="W41" s="7"/>
     </row>
     <row r="42" spans="1:23">
-      <c r="A42" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="5"/>
+      <c r="A42" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="16"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="H42" s="5"/>
@@ -1794,9 +2263,12 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="16"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="H43" s="5"/>
@@ -1818,9 +2290,12 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="16"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="H44" s="5"/>
@@ -1842,9 +2317,12 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="16"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="H45" s="5"/>
@@ -1866,9 +2344,12 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="16"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="H46" s="5"/>
@@ -1890,9 +2371,12 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="16"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="H47" s="5"/>
@@ -1914,9 +2398,12 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="16"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="H48" s="5"/>
@@ -1938,9 +2425,12 @@
     </row>
     <row r="49" spans="1:23">
       <c r="A49" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="16"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="H49" s="5"/>
@@ -1962,9 +2452,12 @@
     </row>
     <row r="50" spans="1:23">
       <c r="A50" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="16"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="H50" s="5"/>
@@ -1986,9 +2479,12 @@
     </row>
     <row r="51" spans="1:23">
       <c r="A51" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B51" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="16"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="H51" s="5"/>
@@ -2010,9 +2506,12 @@
     </row>
     <row r="52" spans="1:23">
       <c r="A52" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="16"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="H52" s="5"/>
@@ -2034,9 +2533,12 @@
     </row>
     <row r="53" spans="1:23">
       <c r="A53" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="16"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="H53" s="5"/>
@@ -2058,9 +2560,12 @@
     </row>
     <row r="54" spans="1:23">
       <c r="A54" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="16"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="H54" s="5"/>
@@ -2082,9 +2587,12 @@
     </row>
     <row r="55" spans="1:23">
       <c r="A55" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="16"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="H55" s="5"/>
@@ -2101,14 +2609,17 @@
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
+      <c r="V55" s="1"/>
       <c r="W55" s="7"/>
     </row>
     <row r="56" spans="1:23">
       <c r="A56" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" s="16"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="H56" s="5"/>
@@ -2125,14 +2636,17 @@
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
+      <c r="V56" s="1"/>
       <c r="W56" s="7"/>
     </row>
     <row r="57" spans="1:23">
       <c r="A57" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="16"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="H57" s="5"/>
@@ -2154,9 +2668,12 @@
     </row>
     <row r="58" spans="1:23">
       <c r="A58" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="16"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="H58" s="5"/>
@@ -2178,9 +2695,12 @@
     </row>
     <row r="59" spans="1:23">
       <c r="A59" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="16"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="H59" s="5"/>
@@ -2202,9 +2722,12 @@
     </row>
     <row r="60" spans="1:23">
       <c r="A60" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="16"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="H60" s="5"/>
@@ -2226,9 +2749,12 @@
     </row>
     <row r="61" spans="1:23">
       <c r="A61" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="16"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="H61" s="5"/>
@@ -2248,11 +2774,14 @@
       <c r="V61" s="5"/>
       <c r="W61" s="7"/>
     </row>
-    <row r="62" spans="1:23">
-      <c r="A62" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="5"/>
+    <row r="62" spans="1:23" ht="30.6">
+      <c r="A62" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="16"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="H62" s="5"/>
@@ -2274,9 +2803,12 @@
     </row>
     <row r="63" spans="1:23">
       <c r="A63" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B63" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="16"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="H63" s="5"/>
@@ -2297,10 +2829,13 @@
       <c r="W63" s="7"/>
     </row>
     <row r="64" spans="1:23">
-      <c r="A64" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64" s="5"/>
+      <c r="A64" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="16"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="H64" s="5"/>
@@ -2322,9 +2857,12 @@
     </row>
     <row r="65" spans="1:23">
       <c r="A65" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B65" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" s="16"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="H65" s="5"/>
@@ -2346,9 +2884,12 @@
     </row>
     <row r="66" spans="1:23">
       <c r="A66" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B66" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="16"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="H66" s="5"/>
@@ -2370,9 +2911,12 @@
     </row>
     <row r="67" spans="1:23">
       <c r="A67" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" s="16"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="H67" s="5"/>
@@ -2394,9 +2938,12 @@
     </row>
     <row r="68" spans="1:23">
       <c r="A68" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="16"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="H68" s="5"/>
@@ -2418,9 +2965,12 @@
     </row>
     <row r="69" spans="1:23">
       <c r="A69" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B69" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="16"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="H69" s="5"/>
@@ -2442,9 +2992,12 @@
     </row>
     <row r="70" spans="1:23">
       <c r="A70" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B70" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="16"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="H70" s="5"/>
@@ -2466,9 +3019,12 @@
     </row>
     <row r="71" spans="1:23">
       <c r="A71" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B71" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" s="16"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="H71" s="5"/>
@@ -2490,9 +3046,12 @@
     </row>
     <row r="72" spans="1:23">
       <c r="A72" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="16"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="H72" s="5"/>
@@ -2514,9 +3073,12 @@
     </row>
     <row r="73" spans="1:23">
       <c r="A73" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B73" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" s="16"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="H73" s="5"/>
@@ -2538,9 +3100,12 @@
     </row>
     <row r="74" spans="1:23">
       <c r="A74" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B74" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="16"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="H74" s="5"/>
@@ -2562,9 +3127,12 @@
     </row>
     <row r="75" spans="1:23">
       <c r="A75" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75" s="16"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="H75" s="5"/>
@@ -2581,14 +3149,17 @@
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
       <c r="U75" s="5"/>
-      <c r="V75" s="1"/>
+      <c r="V75" s="5"/>
       <c r="W75" s="7"/>
     </row>
     <row r="76" spans="1:23">
       <c r="A76" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B76" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" s="16"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="H76" s="5"/>
@@ -2605,14 +3176,17 @@
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
-      <c r="V76" s="1"/>
+      <c r="V76" s="5"/>
       <c r="W76" s="7"/>
     </row>
     <row r="77" spans="1:23">
       <c r="A77" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B77" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C77" s="16"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="H77" s="5"/>
@@ -2634,9 +3208,12 @@
     </row>
     <row r="78" spans="1:23">
       <c r="A78" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B78" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C78" s="16"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="H78" s="5"/>
@@ -2658,9 +3235,12 @@
     </row>
     <row r="79" spans="1:23">
       <c r="A79" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C79" s="16"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="H79" s="5"/>
@@ -2677,14 +3257,17 @@
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
       <c r="U79" s="5"/>
-      <c r="V79" s="5"/>
+      <c r="V79" s="1"/>
       <c r="W79" s="7"/>
     </row>
     <row r="80" spans="1:23">
       <c r="A80" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B80" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C80" s="16"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="H80" s="5"/>
@@ -2701,14 +3284,17 @@
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
-      <c r="V80" s="5"/>
+      <c r="V80" s="1"/>
       <c r="W80" s="7"/>
     </row>
     <row r="81" spans="1:23">
       <c r="A81" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B81" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" s="16"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="H81" s="5"/>
@@ -2725,14 +3311,17 @@
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
-      <c r="V81" s="1"/>
+      <c r="V81" s="5"/>
       <c r="W81" s="7"/>
     </row>
     <row r="82" spans="1:23">
       <c r="A82" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B82" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" s="16"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="H82" s="5"/>
@@ -2749,14 +3338,17 @@
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
-      <c r="V82" s="1"/>
+      <c r="V82" s="5"/>
       <c r="W82" s="7"/>
     </row>
     <row r="83" spans="1:23">
       <c r="A83" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B83" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C83" s="16"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="H83" s="5"/>
@@ -2778,9 +3370,12 @@
     </row>
     <row r="84" spans="1:23">
       <c r="A84" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B84" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C84" s="16"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="H84" s="5"/>
@@ -2802,9 +3397,12 @@
     </row>
     <row r="85" spans="1:23">
       <c r="A85" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B85" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="16"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="H85" s="5"/>
@@ -2826,9 +3424,12 @@
     </row>
     <row r="86" spans="1:23">
       <c r="A86" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B86" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" s="16"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="H86" s="5"/>
@@ -2845,14 +3446,17 @@
       <c r="S86" s="5"/>
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
-      <c r="V86" s="5"/>
+      <c r="V86" s="1"/>
       <c r="W86" s="7"/>
     </row>
     <row r="87" spans="1:23">
       <c r="A87" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B87" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" s="16"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="H87" s="5"/>
@@ -2869,14 +3473,17 @@
       <c r="S87" s="5"/>
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
-      <c r="V87" s="5"/>
+      <c r="V87" s="1"/>
       <c r="W87" s="7"/>
     </row>
     <row r="88" spans="1:23">
       <c r="A88" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B88" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" s="16"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="H88" s="5"/>
@@ -2898,9 +3505,12 @@
     </row>
     <row r="89" spans="1:23">
       <c r="A89" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B89" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89" s="16"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="H89" s="5"/>
@@ -2922,9 +3532,12 @@
     </row>
     <row r="90" spans="1:23">
       <c r="A90" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B90" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" s="16"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="H90" s="5"/>
@@ -2946,9 +3559,12 @@
     </row>
     <row r="91" spans="1:23">
       <c r="A91" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C91" s="16"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="H91" s="5"/>
@@ -2970,9 +3586,12 @@
     </row>
     <row r="92" spans="1:23">
       <c r="A92" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B92" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" s="16"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="H92" s="5"/>
@@ -2994,9 +3613,12 @@
     </row>
     <row r="93" spans="1:23">
       <c r="A93" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93" s="16"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="H93" s="5"/>
@@ -3018,9 +3640,12 @@
     </row>
     <row r="94" spans="1:23">
       <c r="A94" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" s="16"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="H94" s="5"/>
@@ -3042,9 +3667,12 @@
     </row>
     <row r="95" spans="1:23">
       <c r="A95" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" s="16"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="H95" s="5"/>
@@ -3066,9 +3694,12 @@
     </row>
     <row r="96" spans="1:23">
       <c r="A96" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" s="16"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="H96" s="5"/>
@@ -3090,10 +3721,12 @@
     </row>
     <row r="97" spans="1:23">
       <c r="A97" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" s="16"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="H97" s="5"/>
@@ -3115,10 +3748,12 @@
     </row>
     <row r="98" spans="1:23">
       <c r="A98" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="16"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="H98" s="5"/>
@@ -3140,10 +3775,12 @@
     </row>
     <row r="99" spans="1:23">
       <c r="A99" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="16"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="H99" s="5"/>
@@ -3165,10 +3802,12 @@
     </row>
     <row r="100" spans="1:23">
       <c r="A100" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" s="16"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="H100" s="5"/>
@@ -3190,10 +3829,12 @@
     </row>
     <row r="101" spans="1:23">
       <c r="A101" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" s="16"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="H101" s="5"/>
@@ -3215,10 +3856,12 @@
     </row>
     <row r="102" spans="1:23">
       <c r="A102" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="16"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="H102" s="5"/>
@@ -3235,15 +3878,17 @@
       <c r="S102" s="5"/>
       <c r="T102" s="5"/>
       <c r="U102" s="5"/>
-      <c r="V102" s="1"/>
+      <c r="V102" s="5"/>
       <c r="W102" s="7"/>
     </row>
     <row r="103" spans="1:23">
       <c r="A103" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" s="16"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="H103" s="5"/>
@@ -3260,13 +3905,17 @@
       <c r="S103" s="5"/>
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
-      <c r="V103" s="1"/>
+      <c r="V103" s="5"/>
       <c r="W103" s="7"/>
     </row>
     <row r="104" spans="1:23">
-      <c r="A104" s="3"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
+      <c r="A104" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C104" s="16"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="H104" s="5"/>
@@ -3283,13 +3932,17 @@
       <c r="S104" s="5"/>
       <c r="T104" s="5"/>
       <c r="U104" s="5"/>
-      <c r="V104" s="5"/>
+      <c r="V104" s="1"/>
       <c r="W104" s="7"/>
     </row>
     <row r="105" spans="1:23">
-      <c r="A105" s="3"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
+      <c r="A105" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" s="16"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="H105" s="5"/>
@@ -3306,13 +3959,12 @@
       <c r="S105" s="5"/>
       <c r="T105" s="5"/>
       <c r="U105" s="5"/>
-      <c r="V105" s="5"/>
+      <c r="V105" s="1"/>
       <c r="W105" s="7"/>
     </row>
     <row r="106" spans="1:23">
       <c r="A106" s="3"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
+      <c r="C106"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="H106" s="5"/>
@@ -3421,7 +4073,7 @@
       <c r="S110" s="5"/>
       <c r="T110" s="5"/>
       <c r="U110" s="5"/>
-      <c r="V110" s="1"/>
+      <c r="V110" s="5"/>
       <c r="W110" s="7"/>
     </row>
     <row r="111" spans="1:23">
@@ -3444,10 +4096,11 @@
       <c r="S111" s="5"/>
       <c r="T111" s="5"/>
       <c r="U111" s="5"/>
-      <c r="V111" s="1"/>
+      <c r="V111" s="5"/>
       <c r="W111" s="7"/>
     </row>
     <row r="112" spans="1:23">
+      <c r="A112" s="3"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -3466,10 +4119,11 @@
       <c r="S112" s="5"/>
       <c r="T112" s="5"/>
       <c r="U112" s="5"/>
-      <c r="V112" s="5"/>
+      <c r="V112" s="1"/>
       <c r="W112" s="7"/>
     </row>
     <row r="113" spans="1:23">
+      <c r="A113" s="3"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -3488,7 +4142,7 @@
       <c r="S113" s="5"/>
       <c r="T113" s="5"/>
       <c r="U113" s="5"/>
-      <c r="V113" s="5"/>
+      <c r="V113" s="1"/>
       <c r="W113" s="7"/>
     </row>
     <row r="114" spans="1:23">
@@ -3642,7 +4296,7 @@
       <c r="S120" s="5"/>
       <c r="T120" s="5"/>
       <c r="U120" s="5"/>
-      <c r="V120" s="1"/>
+      <c r="V120" s="5"/>
       <c r="W120" s="7"/>
     </row>
     <row r="121" spans="1:23">
@@ -3664,7 +4318,7 @@
       <c r="S121" s="5"/>
       <c r="T121" s="5"/>
       <c r="U121" s="5"/>
-      <c r="V121" s="1"/>
+      <c r="V121" s="5"/>
       <c r="W121" s="7"/>
     </row>
     <row r="122" spans="1:23">
@@ -3734,7 +4388,6 @@
       <c r="W124" s="7"/>
     </row>
     <row r="125" spans="1:23">
-      <c r="A125" s="3"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -3779,6 +4432,7 @@
       <c r="W126" s="7"/>
     </row>
     <row r="127" spans="1:23">
+      <c r="A127" s="3"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -3863,7 +4517,7 @@
       <c r="S130" s="5"/>
       <c r="T130" s="5"/>
       <c r="U130" s="5"/>
-      <c r="V130" s="5"/>
+      <c r="V130" s="1"/>
       <c r="W130" s="7"/>
     </row>
     <row r="131" spans="1:23">
@@ -3885,11 +4539,10 @@
       <c r="S131" s="5"/>
       <c r="T131" s="5"/>
       <c r="U131" s="5"/>
-      <c r="V131" s="5"/>
+      <c r="V131" s="1"/>
       <c r="W131" s="7"/>
     </row>
     <row r="132" spans="1:23">
-      <c r="A132" s="3"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -3908,7 +4561,7 @@
       <c r="S132" s="5"/>
       <c r="T132" s="5"/>
       <c r="U132" s="5"/>
-      <c r="V132" s="1"/>
+      <c r="V132" s="5"/>
       <c r="W132" s="7"/>
     </row>
     <row r="133" spans="1:23">
@@ -3953,7 +4606,7 @@
       <c r="S134" s="5"/>
       <c r="T134" s="5"/>
       <c r="U134" s="5"/>
-      <c r="V134" s="5"/>
+      <c r="V134" s="1"/>
       <c r="W134" s="7"/>
     </row>
     <row r="135" spans="1:23">
@@ -3975,10 +4628,11 @@
       <c r="S135" s="5"/>
       <c r="T135" s="5"/>
       <c r="U135" s="5"/>
-      <c r="V135" s="1"/>
+      <c r="V135" s="5"/>
       <c r="W135" s="7"/>
     </row>
     <row r="136" spans="1:23">
+      <c r="A136" s="3"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -3997,7 +4651,7 @@
       <c r="S136" s="5"/>
       <c r="T136" s="5"/>
       <c r="U136" s="5"/>
-      <c r="V136" s="1"/>
+      <c r="V136" s="5"/>
       <c r="W136" s="7"/>
     </row>
     <row r="137" spans="1:23">
@@ -4173,7 +4827,7 @@
       <c r="S144" s="5"/>
       <c r="T144" s="5"/>
       <c r="U144" s="5"/>
-      <c r="V144" s="5"/>
+      <c r="V144" s="1"/>
       <c r="W144" s="7"/>
     </row>
     <row r="145" spans="2:23">
@@ -4195,7 +4849,7 @@
       <c r="S145" s="5"/>
       <c r="T145" s="5"/>
       <c r="U145" s="5"/>
-      <c r="V145" s="5"/>
+      <c r="V145" s="1"/>
       <c r="W145" s="7"/>
     </row>
     <row r="146" spans="2:23">
@@ -4217,7 +4871,7 @@
       <c r="S146" s="5"/>
       <c r="T146" s="5"/>
       <c r="U146" s="5"/>
-      <c r="V146" s="1"/>
+      <c r="V146" s="5"/>
       <c r="W146" s="7"/>
     </row>
     <row r="147" spans="2:23">
@@ -4261,7 +4915,7 @@
       <c r="S148" s="5"/>
       <c r="T148" s="5"/>
       <c r="U148" s="5"/>
-      <c r="V148" s="5"/>
+      <c r="V148" s="1"/>
       <c r="W148" s="7"/>
     </row>
     <row r="149" spans="2:23">
@@ -4305,7 +4959,7 @@
       <c r="S150" s="5"/>
       <c r="T150" s="5"/>
       <c r="U150" s="5"/>
-      <c r="V150" s="1"/>
+      <c r="V150" s="5"/>
       <c r="W150" s="7"/>
     </row>
     <row r="151" spans="2:23">
@@ -4327,7 +4981,7 @@
       <c r="S151" s="5"/>
       <c r="T151" s="5"/>
       <c r="U151" s="5"/>
-      <c r="V151" s="1"/>
+      <c r="V151" s="5"/>
       <c r="W151" s="7"/>
     </row>
     <row r="152" spans="2:23">
@@ -4349,7 +5003,7 @@
       <c r="S152" s="5"/>
       <c r="T152" s="5"/>
       <c r="U152" s="5"/>
-      <c r="V152" s="5"/>
+      <c r="V152" s="1"/>
       <c r="W152" s="7"/>
     </row>
     <row r="153" spans="2:23">
@@ -4371,7 +5025,7 @@
       <c r="S153" s="5"/>
       <c r="T153" s="5"/>
       <c r="U153" s="5"/>
-      <c r="V153" s="5"/>
+      <c r="V153" s="1"/>
       <c r="W153" s="7"/>
     </row>
     <row r="154" spans="2:23">
@@ -4701,7 +5355,7 @@
       <c r="S168" s="5"/>
       <c r="T168" s="5"/>
       <c r="U168" s="5"/>
-      <c r="V168" s="1"/>
+      <c r="V168" s="5"/>
       <c r="W168" s="7"/>
     </row>
     <row r="169" spans="2:23">
@@ -4723,7 +5377,7 @@
       <c r="S169" s="5"/>
       <c r="T169" s="5"/>
       <c r="U169" s="5"/>
-      <c r="V169" s="1"/>
+      <c r="V169" s="5"/>
       <c r="W169" s="7"/>
     </row>
     <row r="170" spans="2:23">
@@ -4745,7 +5399,7 @@
       <c r="S170" s="5"/>
       <c r="T170" s="5"/>
       <c r="U170" s="5"/>
-      <c r="V170" s="5"/>
+      <c r="V170" s="1"/>
       <c r="W170" s="7"/>
     </row>
     <row r="171" spans="2:23">
@@ -4767,7 +5421,7 @@
       <c r="S171" s="5"/>
       <c r="T171" s="5"/>
       <c r="U171" s="5"/>
-      <c r="V171" s="5"/>
+      <c r="V171" s="1"/>
       <c r="W171" s="7"/>
     </row>
     <row r="172" spans="2:23">
@@ -4789,7 +5443,7 @@
       <c r="S172" s="5"/>
       <c r="T172" s="5"/>
       <c r="U172" s="5"/>
-      <c r="V172" s="1"/>
+      <c r="V172" s="5"/>
       <c r="W172" s="7"/>
     </row>
     <row r="173" spans="2:23">
@@ -4811,7 +5465,7 @@
       <c r="S173" s="5"/>
       <c r="T173" s="5"/>
       <c r="U173" s="5"/>
-      <c r="V173" s="1"/>
+      <c r="V173" s="5"/>
       <c r="W173" s="7"/>
     </row>
     <row r="174" spans="2:23">
@@ -4833,7 +5487,7 @@
       <c r="S174" s="5"/>
       <c r="T174" s="5"/>
       <c r="U174" s="5"/>
-      <c r="V174" s="5"/>
+      <c r="V174" s="1"/>
       <c r="W174" s="7"/>
     </row>
     <row r="175" spans="2:23">
@@ -4855,7 +5509,7 @@
       <c r="S175" s="5"/>
       <c r="T175" s="5"/>
       <c r="U175" s="5"/>
-      <c r="V175" s="5"/>
+      <c r="V175" s="1"/>
       <c r="W175" s="7"/>
     </row>
     <row r="176" spans="2:23">
@@ -5185,7 +5839,7 @@
       <c r="S190" s="5"/>
       <c r="T190" s="5"/>
       <c r="U190" s="5"/>
-      <c r="V190" s="1"/>
+      <c r="V190" s="5"/>
       <c r="W190" s="7"/>
     </row>
     <row r="191" spans="2:23">
@@ -5207,7 +5861,7 @@
       <c r="S191" s="5"/>
       <c r="T191" s="5"/>
       <c r="U191" s="5"/>
-      <c r="V191" s="1"/>
+      <c r="V191" s="5"/>
       <c r="W191" s="7"/>
     </row>
     <row r="192" spans="2:23">
@@ -5273,7 +5927,7 @@
       <c r="S194" s="5"/>
       <c r="T194" s="5"/>
       <c r="U194" s="5"/>
-      <c r="V194" s="5"/>
+      <c r="V194" s="1"/>
       <c r="W194" s="7"/>
     </row>
     <row r="195" spans="2:23">
@@ -5295,7 +5949,7 @@
       <c r="S195" s="5"/>
       <c r="T195" s="5"/>
       <c r="U195" s="5"/>
-      <c r="V195" s="5"/>
+      <c r="V195" s="1"/>
       <c r="W195" s="7"/>
     </row>
     <row r="196" spans="2:23">
@@ -5361,7 +6015,7 @@
       <c r="S198" s="5"/>
       <c r="T198" s="5"/>
       <c r="U198" s="5"/>
-      <c r="V198" s="1"/>
+      <c r="V198" s="5"/>
       <c r="W198" s="7"/>
     </row>
     <row r="199" spans="2:23">
@@ -5383,7 +6037,7 @@
       <c r="S199" s="5"/>
       <c r="T199" s="5"/>
       <c r="U199" s="5"/>
-      <c r="V199" s="1"/>
+      <c r="V199" s="5"/>
       <c r="W199" s="7"/>
     </row>
     <row r="200" spans="2:23">
@@ -5405,7 +6059,7 @@
       <c r="S200" s="5"/>
       <c r="T200" s="5"/>
       <c r="U200" s="5"/>
-      <c r="V200" s="5"/>
+      <c r="V200" s="1"/>
       <c r="W200" s="7"/>
     </row>
     <row r="201" spans="2:23">
@@ -5427,7 +6081,7 @@
       <c r="S201" s="5"/>
       <c r="T201" s="5"/>
       <c r="U201" s="5"/>
-      <c r="V201" s="5"/>
+      <c r="V201" s="1"/>
       <c r="W201" s="7"/>
     </row>
     <row r="202" spans="2:23">
@@ -5625,7 +6279,7 @@
       <c r="S210" s="5"/>
       <c r="T210" s="5"/>
       <c r="U210" s="5"/>
-      <c r="V210" s="1"/>
+      <c r="V210" s="5"/>
       <c r="W210" s="7"/>
     </row>
     <row r="211" spans="1:23">
@@ -5647,11 +6301,10 @@
       <c r="S211" s="5"/>
       <c r="T211" s="5"/>
       <c r="U211" s="5"/>
-      <c r="V211" s="1"/>
+      <c r="V211" s="5"/>
       <c r="W211" s="7"/>
     </row>
     <row r="212" spans="1:23">
-      <c r="A212" s="3"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
@@ -5670,7 +6323,7 @@
       <c r="S212" s="5"/>
       <c r="T212" s="5"/>
       <c r="U212" s="5"/>
-      <c r="V212" s="5"/>
+      <c r="V212" s="1"/>
       <c r="W212" s="7"/>
     </row>
     <row r="213" spans="1:23">
@@ -5692,11 +6345,11 @@
       <c r="S213" s="5"/>
       <c r="T213" s="5"/>
       <c r="U213" s="5"/>
-      <c r="V213" s="5"/>
+      <c r="V213" s="1"/>
       <c r="W213" s="7"/>
     </row>
     <row r="214" spans="1:23">
-      <c r="A214" s="8"/>
+      <c r="A214" s="3"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
@@ -5719,7 +6372,6 @@
       <c r="W214" s="7"/>
     </row>
     <row r="215" spans="1:23">
-      <c r="A215" s="3"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
@@ -5742,7 +6394,7 @@
       <c r="W215" s="7"/>
     </row>
     <row r="216" spans="1:23">
-      <c r="A216" s="3"/>
+      <c r="A216" s="8"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
@@ -5761,10 +6413,11 @@
       <c r="S216" s="5"/>
       <c r="T216" s="5"/>
       <c r="U216" s="5"/>
-      <c r="V216" s="1"/>
+      <c r="V216" s="5"/>
       <c r="W216" s="7"/>
     </row>
     <row r="217" spans="1:23">
+      <c r="A217" s="3"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
@@ -5783,10 +6436,11 @@
       <c r="S217" s="5"/>
       <c r="T217" s="5"/>
       <c r="U217" s="5"/>
-      <c r="V217" s="1"/>
+      <c r="V217" s="5"/>
       <c r="W217" s="7"/>
     </row>
     <row r="218" spans="1:23">
+      <c r="A218" s="3"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
@@ -5805,7 +6459,7 @@
       <c r="S218" s="5"/>
       <c r="T218" s="5"/>
       <c r="U218" s="5"/>
-      <c r="V218" s="5"/>
+      <c r="V218" s="1"/>
       <c r="W218" s="7"/>
     </row>
     <row r="219" spans="1:23">
@@ -5827,7 +6481,7 @@
       <c r="S219" s="5"/>
       <c r="T219" s="5"/>
       <c r="U219" s="5"/>
-      <c r="V219" s="5"/>
+      <c r="V219" s="1"/>
       <c r="W219" s="7"/>
     </row>
     <row r="220" spans="1:23">
@@ -5940,7 +6594,7 @@
       <c r="V224" s="5"/>
       <c r="W224" s="7"/>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="2:23">
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
@@ -5962,7 +6616,7 @@
       <c r="V225" s="5"/>
       <c r="W225" s="7"/>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="2:23">
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
@@ -5984,7 +6638,7 @@
       <c r="V226" s="5"/>
       <c r="W226" s="7"/>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="2:23">
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
@@ -6006,7 +6660,7 @@
       <c r="V227" s="5"/>
       <c r="W227" s="7"/>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="2:23">
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
@@ -6028,7 +6682,7 @@
       <c r="V228" s="5"/>
       <c r="W228" s="7"/>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="2:23">
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
@@ -6050,7 +6704,7 @@
       <c r="V229" s="5"/>
       <c r="W229" s="7"/>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="2:23">
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
@@ -6072,7 +6726,7 @@
       <c r="V230" s="5"/>
       <c r="W230" s="7"/>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="2:23">
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
@@ -6094,7 +6748,7 @@
       <c r="V231" s="5"/>
       <c r="W231" s="7"/>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="2:23">
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
@@ -6116,7 +6770,7 @@
       <c r="V232" s="5"/>
       <c r="W232" s="7"/>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="2:23">
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
@@ -6138,7 +6792,7 @@
       <c r="V233" s="5"/>
       <c r="W233" s="7"/>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="2:23">
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
@@ -6160,7 +6814,7 @@
       <c r="V234" s="5"/>
       <c r="W234" s="7"/>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="2:23">
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
@@ -6182,7 +6836,7 @@
       <c r="V235" s="5"/>
       <c r="W235" s="7"/>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="2:23">
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
@@ -6204,7 +6858,7 @@
       <c r="V236" s="5"/>
       <c r="W236" s="7"/>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="2:23">
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
@@ -6226,7 +6880,7 @@
       <c r="V237" s="5"/>
       <c r="W237" s="7"/>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="2:23">
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
@@ -6248,8 +6902,7 @@
       <c r="V238" s="5"/>
       <c r="W238" s="7"/>
     </row>
-    <row r="239" spans="1:23">
-      <c r="A239" s="8"/>
+    <row r="239" spans="2:23">
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
@@ -6271,7 +6924,7 @@
       <c r="V239" s="5"/>
       <c r="W239" s="7"/>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="2:23">
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
@@ -6317,7 +6970,6 @@
       <c r="W241" s="7"/>
     </row>
     <row r="242" spans="1:23">
-      <c r="A242" s="3"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
@@ -6340,6 +6992,7 @@
       <c r="W242" s="7"/>
     </row>
     <row r="243" spans="1:23">
+      <c r="A243" s="8"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
@@ -6362,6 +7015,7 @@
       <c r="W243" s="7"/>
     </row>
     <row r="244" spans="1:23">
+      <c r="A244" s="3"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
@@ -6380,7 +7034,7 @@
       <c r="S244" s="5"/>
       <c r="T244" s="5"/>
       <c r="U244" s="5"/>
-      <c r="V244" s="1"/>
+      <c r="V244" s="5"/>
       <c r="W244" s="7"/>
     </row>
     <row r="245" spans="1:23">
@@ -6402,11 +7056,10 @@
       <c r="S245" s="5"/>
       <c r="T245" s="5"/>
       <c r="U245" s="5"/>
-      <c r="V245" s="1"/>
+      <c r="V245" s="5"/>
       <c r="W245" s="7"/>
     </row>
     <row r="246" spans="1:23">
-      <c r="A246" s="8"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
@@ -6425,7 +7078,7 @@
       <c r="S246" s="5"/>
       <c r="T246" s="5"/>
       <c r="U246" s="5"/>
-      <c r="V246" s="5"/>
+      <c r="V246" s="1"/>
       <c r="W246" s="7"/>
     </row>
     <row r="247" spans="1:23">
@@ -6447,7 +7100,7 @@
       <c r="S247" s="5"/>
       <c r="T247" s="5"/>
       <c r="U247" s="5"/>
-      <c r="V247" s="5"/>
+      <c r="V247" s="1"/>
       <c r="W247" s="7"/>
     </row>
     <row r="248" spans="1:23">
@@ -6470,7 +7123,7 @@
       <c r="S248" s="5"/>
       <c r="T248" s="5"/>
       <c r="U248" s="5"/>
-      <c r="V248" s="1"/>
+      <c r="V248" s="5"/>
       <c r="W248" s="7"/>
     </row>
     <row r="249" spans="1:23">
@@ -6496,6 +7149,7 @@
       <c r="W249" s="7"/>
     </row>
     <row r="250" spans="1:23">
+      <c r="A250" s="8"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
@@ -6514,7 +7168,7 @@
       <c r="S250" s="5"/>
       <c r="T250" s="5"/>
       <c r="U250" s="5"/>
-      <c r="V250" s="5"/>
+      <c r="V250" s="1"/>
       <c r="W250" s="7"/>
     </row>
     <row r="251" spans="1:23">
@@ -6536,7 +7190,7 @@
       <c r="S251" s="5"/>
       <c r="T251" s="5"/>
       <c r="U251" s="5"/>
-      <c r="V251" s="1"/>
+      <c r="V251" s="5"/>
       <c r="W251" s="7"/>
     </row>
     <row r="252" spans="1:23">
@@ -6558,7 +7212,7 @@
       <c r="S252" s="5"/>
       <c r="T252" s="5"/>
       <c r="U252" s="5"/>
-      <c r="V252" s="1"/>
+      <c r="V252" s="5"/>
       <c r="W252" s="7"/>
     </row>
     <row r="253" spans="1:23">
@@ -6624,7 +7278,7 @@
       <c r="S255" s="5"/>
       <c r="T255" s="5"/>
       <c r="U255" s="5"/>
-      <c r="V255" s="5"/>
+      <c r="V255" s="1"/>
       <c r="W255" s="7"/>
     </row>
     <row r="256" spans="1:23">
@@ -6646,7 +7300,7 @@
       <c r="S256" s="5"/>
       <c r="T256" s="5"/>
       <c r="U256" s="5"/>
-      <c r="V256" s="5"/>
+      <c r="V256" s="1"/>
       <c r="W256" s="7"/>
     </row>
     <row r="257" spans="2:23">
@@ -6712,7 +7366,7 @@
       <c r="S259" s="5"/>
       <c r="T259" s="5"/>
       <c r="U259" s="5"/>
-      <c r="V259" s="1"/>
+      <c r="V259" s="5"/>
       <c r="W259" s="7"/>
     </row>
     <row r="260" spans="2:23">
@@ -6734,7 +7388,7 @@
       <c r="S260" s="5"/>
       <c r="T260" s="5"/>
       <c r="U260" s="5"/>
-      <c r="V260" s="1"/>
+      <c r="V260" s="5"/>
       <c r="W260" s="7"/>
     </row>
     <row r="261" spans="2:23">
@@ -6756,7 +7410,7 @@
       <c r="S261" s="5"/>
       <c r="T261" s="5"/>
       <c r="U261" s="5"/>
-      <c r="V261" s="5"/>
+      <c r="V261" s="1"/>
       <c r="W261" s="7"/>
     </row>
     <row r="262" spans="2:23">
@@ -6778,7 +7432,7 @@
       <c r="S262" s="5"/>
       <c r="T262" s="5"/>
       <c r="U262" s="5"/>
-      <c r="V262" s="5"/>
+      <c r="V262" s="1"/>
       <c r="W262" s="7"/>
     </row>
     <row r="263" spans="2:23">
@@ -7328,7 +7982,7 @@
       <c r="S287" s="5"/>
       <c r="T287" s="5"/>
       <c r="U287" s="5"/>
-      <c r="V287" s="1"/>
+      <c r="V287" s="5"/>
       <c r="W287" s="7"/>
     </row>
     <row r="288" spans="2:23">
@@ -7350,7 +8004,7 @@
       <c r="S288" s="5"/>
       <c r="T288" s="5"/>
       <c r="U288" s="5"/>
-      <c r="V288" s="1"/>
+      <c r="V288" s="5"/>
       <c r="W288" s="7"/>
     </row>
     <row r="289" spans="2:23">
@@ -7372,7 +8026,7 @@
       <c r="S289" s="5"/>
       <c r="T289" s="5"/>
       <c r="U289" s="5"/>
-      <c r="V289" s="5"/>
+      <c r="V289" s="1"/>
       <c r="W289" s="7"/>
     </row>
     <row r="290" spans="2:23">
@@ -7394,7 +8048,7 @@
       <c r="S290" s="5"/>
       <c r="T290" s="5"/>
       <c r="U290" s="5"/>
-      <c r="V290" s="5"/>
+      <c r="V290" s="1"/>
       <c r="W290" s="7"/>
     </row>
     <row r="291" spans="2:23">
@@ -7416,7 +8070,7 @@
       <c r="S291" s="5"/>
       <c r="T291" s="5"/>
       <c r="U291" s="5"/>
-      <c r="V291" s="1"/>
+      <c r="V291" s="5"/>
       <c r="W291" s="7"/>
     </row>
     <row r="292" spans="2:23">
@@ -7460,7 +8114,7 @@
       <c r="S293" s="5"/>
       <c r="T293" s="5"/>
       <c r="U293" s="5"/>
-      <c r="V293" s="5"/>
+      <c r="V293" s="1"/>
       <c r="W293" s="7"/>
     </row>
     <row r="294" spans="2:23">
@@ -7988,7 +8642,7 @@
       <c r="S317" s="5"/>
       <c r="T317" s="5"/>
       <c r="U317" s="5"/>
-      <c r="V317" s="1"/>
+      <c r="V317" s="5"/>
       <c r="W317" s="7"/>
     </row>
     <row r="318" spans="2:23">
@@ -8010,7 +8664,7 @@
       <c r="S318" s="5"/>
       <c r="T318" s="5"/>
       <c r="U318" s="5"/>
-      <c r="V318" s="1"/>
+      <c r="V318" s="5"/>
       <c r="W318" s="7"/>
     </row>
     <row r="319" spans="2:23">
@@ -8098,7 +8752,7 @@
       <c r="S322" s="5"/>
       <c r="T322" s="5"/>
       <c r="U322" s="5"/>
-      <c r="V322" s="5"/>
+      <c r="V322" s="1"/>
       <c r="W322" s="7"/>
     </row>
     <row r="323" spans="2:23">
@@ -8120,7 +8774,7 @@
       <c r="S323" s="5"/>
       <c r="T323" s="5"/>
       <c r="U323" s="5"/>
-      <c r="V323" s="5"/>
+      <c r="V323" s="1"/>
       <c r="W323" s="7"/>
     </row>
     <row r="324" spans="2:23">
@@ -8186,7 +8840,7 @@
       <c r="S326" s="5"/>
       <c r="T326" s="5"/>
       <c r="U326" s="5"/>
-      <c r="V326" s="1"/>
+      <c r="V326" s="5"/>
       <c r="W326" s="7"/>
     </row>
     <row r="327" spans="2:23">
@@ -8208,7 +8862,7 @@
       <c r="S327" s="5"/>
       <c r="T327" s="5"/>
       <c r="U327" s="5"/>
-      <c r="V327" s="1"/>
+      <c r="V327" s="5"/>
       <c r="W327" s="7"/>
     </row>
     <row r="328" spans="2:23">
@@ -8230,7 +8884,7 @@
       <c r="S328" s="5"/>
       <c r="T328" s="5"/>
       <c r="U328" s="5"/>
-      <c r="V328" s="5"/>
+      <c r="V328" s="1"/>
       <c r="W328" s="7"/>
     </row>
     <row r="329" spans="2:23">
@@ -8252,7 +8906,7 @@
       <c r="S329" s="5"/>
       <c r="T329" s="5"/>
       <c r="U329" s="5"/>
-      <c r="V329" s="5"/>
+      <c r="V329" s="1"/>
       <c r="W329" s="7"/>
     </row>
     <row r="330" spans="2:23">
@@ -8274,7 +8928,7 @@
       <c r="S330" s="5"/>
       <c r="T330" s="5"/>
       <c r="U330" s="5"/>
-      <c r="V330" s="1"/>
+      <c r="V330" s="5"/>
       <c r="W330" s="7"/>
     </row>
     <row r="331" spans="2:23">
@@ -8296,7 +8950,7 @@
       <c r="S331" s="5"/>
       <c r="T331" s="5"/>
       <c r="U331" s="5"/>
-      <c r="V331" s="1"/>
+      <c r="V331" s="5"/>
       <c r="W331" s="7"/>
     </row>
     <row r="332" spans="2:23">
@@ -8318,7 +8972,7 @@
       <c r="S332" s="5"/>
       <c r="T332" s="5"/>
       <c r="U332" s="5"/>
-      <c r="V332" s="5"/>
+      <c r="V332" s="1"/>
       <c r="W332" s="7"/>
     </row>
     <row r="333" spans="2:23">
@@ -8340,7 +8994,7 @@
       <c r="S333" s="5"/>
       <c r="T333" s="5"/>
       <c r="U333" s="5"/>
-      <c r="V333" s="5"/>
+      <c r="V333" s="1"/>
       <c r="W333" s="7"/>
     </row>
     <row r="334" spans="2:23">
@@ -8670,7 +9324,7 @@
       <c r="S348" s="5"/>
       <c r="T348" s="5"/>
       <c r="U348" s="5"/>
-      <c r="V348" s="1"/>
+      <c r="V348" s="5"/>
       <c r="W348" s="7"/>
     </row>
     <row r="349" spans="2:23">
@@ -8692,7 +9346,7 @@
       <c r="S349" s="5"/>
       <c r="T349" s="5"/>
       <c r="U349" s="5"/>
-      <c r="V349" s="1"/>
+      <c r="V349" s="5"/>
       <c r="W349" s="7"/>
     </row>
     <row r="350" spans="2:23">
@@ -8714,7 +9368,7 @@
       <c r="S350" s="5"/>
       <c r="T350" s="5"/>
       <c r="U350" s="5"/>
-      <c r="V350" s="5"/>
+      <c r="V350" s="1"/>
       <c r="W350" s="7"/>
     </row>
     <row r="351" spans="2:23">
@@ -8736,7 +9390,7 @@
       <c r="S351" s="5"/>
       <c r="T351" s="5"/>
       <c r="U351" s="5"/>
-      <c r="V351" s="5"/>
+      <c r="V351" s="1"/>
       <c r="W351" s="7"/>
     </row>
     <row r="352" spans="2:23">
@@ -8846,7 +9500,7 @@
       <c r="S356" s="5"/>
       <c r="T356" s="5"/>
       <c r="U356" s="5"/>
-      <c r="V356" s="1"/>
+      <c r="V356" s="5"/>
       <c r="W356" s="7"/>
     </row>
     <row r="357" spans="2:23">
@@ -8868,7 +9522,7 @@
       <c r="S357" s="5"/>
       <c r="T357" s="5"/>
       <c r="U357" s="5"/>
-      <c r="V357" s="1"/>
+      <c r="V357" s="5"/>
       <c r="W357" s="7"/>
     </row>
     <row r="358" spans="2:23">
@@ -8890,7 +9544,7 @@
       <c r="S358" s="5"/>
       <c r="T358" s="5"/>
       <c r="U358" s="5"/>
-      <c r="V358" s="5"/>
+      <c r="V358" s="1"/>
       <c r="W358" s="7"/>
     </row>
     <row r="359" spans="2:23">
@@ -8912,7 +9566,7 @@
       <c r="S359" s="5"/>
       <c r="T359" s="5"/>
       <c r="U359" s="5"/>
-      <c r="V359" s="5"/>
+      <c r="V359" s="1"/>
       <c r="W359" s="7"/>
     </row>
     <row r="360" spans="2:23">
@@ -8934,7 +9588,7 @@
       <c r="S360" s="5"/>
       <c r="T360" s="5"/>
       <c r="U360" s="5"/>
-      <c r="V360" s="1"/>
+      <c r="V360" s="5"/>
       <c r="W360" s="7"/>
     </row>
     <row r="361" spans="2:23">
@@ -8978,7 +9632,7 @@
       <c r="S362" s="5"/>
       <c r="T362" s="5"/>
       <c r="U362" s="5"/>
-      <c r="V362" s="5"/>
+      <c r="V362" s="1"/>
       <c r="W362" s="7"/>
     </row>
     <row r="363" spans="2:23">
@@ -9418,7 +10072,7 @@
       <c r="S382" s="5"/>
       <c r="T382" s="5"/>
       <c r="U382" s="5"/>
-      <c r="V382" s="1"/>
+      <c r="V382" s="5"/>
       <c r="W382" s="7"/>
     </row>
     <row r="383" spans="2:23">
@@ -9440,7 +10094,7 @@
       <c r="S383" s="5"/>
       <c r="T383" s="5"/>
       <c r="U383" s="5"/>
-      <c r="V383" s="1"/>
+      <c r="V383" s="5"/>
       <c r="W383" s="7"/>
     </row>
     <row r="384" spans="2:23">
@@ -9528,7 +10182,7 @@
       <c r="S387" s="5"/>
       <c r="T387" s="5"/>
       <c r="U387" s="5"/>
-      <c r="V387" s="5"/>
+      <c r="V387" s="1"/>
       <c r="W387" s="7"/>
     </row>
     <row r="388" spans="2:23">
@@ -9550,7 +10204,7 @@
       <c r="S388" s="5"/>
       <c r="T388" s="5"/>
       <c r="U388" s="5"/>
-      <c r="V388" s="5"/>
+      <c r="V388" s="1"/>
       <c r="W388" s="7"/>
     </row>
     <row r="389" spans="2:23">
@@ -9616,7 +10270,7 @@
       <c r="S391" s="5"/>
       <c r="T391" s="5"/>
       <c r="U391" s="5"/>
-      <c r="V391" s="1"/>
+      <c r="V391" s="5"/>
       <c r="W391" s="7"/>
     </row>
     <row r="392" spans="2:23">
@@ -9638,7 +10292,7 @@
       <c r="S392" s="5"/>
       <c r="T392" s="5"/>
       <c r="U392" s="5"/>
-      <c r="V392" s="1"/>
+      <c r="V392" s="5"/>
       <c r="W392" s="7"/>
     </row>
     <row r="393" spans="2:23">
@@ -9660,7 +10314,7 @@
       <c r="S393" s="5"/>
       <c r="T393" s="5"/>
       <c r="U393" s="5"/>
-      <c r="V393" s="5"/>
+      <c r="V393" s="1"/>
       <c r="W393" s="7"/>
     </row>
     <row r="394" spans="2:23">
@@ -9682,7 +10336,7 @@
       <c r="S394" s="5"/>
       <c r="T394" s="5"/>
       <c r="U394" s="5"/>
-      <c r="V394" s="5"/>
+      <c r="V394" s="1"/>
       <c r="W394" s="7"/>
     </row>
     <row r="395" spans="2:23">
@@ -9704,7 +10358,7 @@
       <c r="S395" s="5"/>
       <c r="T395" s="5"/>
       <c r="U395" s="5"/>
-      <c r="V395" s="1"/>
+      <c r="V395" s="5"/>
       <c r="W395" s="7"/>
     </row>
     <row r="396" spans="2:23">
@@ -9726,7 +10380,7 @@
       <c r="S396" s="5"/>
       <c r="T396" s="5"/>
       <c r="U396" s="5"/>
-      <c r="V396" s="1"/>
+      <c r="V396" s="5"/>
       <c r="W396" s="7"/>
     </row>
     <row r="397" spans="2:23">
@@ -9748,7 +10402,7 @@
       <c r="S397" s="5"/>
       <c r="T397" s="5"/>
       <c r="U397" s="5"/>
-      <c r="V397" s="5"/>
+      <c r="V397" s="1"/>
       <c r="W397" s="7"/>
     </row>
     <row r="398" spans="2:23">
@@ -9770,7 +10424,7 @@
       <c r="S398" s="5"/>
       <c r="T398" s="5"/>
       <c r="U398" s="5"/>
-      <c r="V398" s="5"/>
+      <c r="V398" s="1"/>
       <c r="W398" s="7"/>
     </row>
     <row r="399" spans="2:23">
@@ -10016,7 +10670,6 @@
       <c r="W409" s="7"/>
     </row>
     <row r="410" spans="1:23">
-      <c r="A410" s="8"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
@@ -10061,6 +10714,7 @@
       <c r="W411" s="7"/>
     </row>
     <row r="412" spans="1:23">
+      <c r="A412" s="8"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
@@ -10101,7 +10755,7 @@
       <c r="S413" s="5"/>
       <c r="T413" s="5"/>
       <c r="U413" s="5"/>
-      <c r="V413" s="1"/>
+      <c r="V413" s="5"/>
       <c r="W413" s="7"/>
     </row>
     <row r="414" spans="1:23">
@@ -10123,7 +10777,7 @@
       <c r="S414" s="5"/>
       <c r="T414" s="5"/>
       <c r="U414" s="5"/>
-      <c r="V414" s="1"/>
+      <c r="V414" s="5"/>
       <c r="W414" s="7"/>
     </row>
     <row r="415" spans="1:23">
@@ -10145,7 +10799,7 @@
       <c r="S415" s="5"/>
       <c r="T415" s="5"/>
       <c r="U415" s="5"/>
-      <c r="V415" s="5"/>
+      <c r="V415" s="1"/>
       <c r="W415" s="7"/>
     </row>
     <row r="416" spans="1:23">
@@ -10167,11 +10821,10 @@
       <c r="S416" s="5"/>
       <c r="T416" s="5"/>
       <c r="U416" s="5"/>
-      <c r="V416" s="5"/>
+      <c r="V416" s="1"/>
       <c r="W416" s="7"/>
     </row>
     <row r="417" spans="1:23">
-      <c r="A417" s="3"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
@@ -10194,7 +10847,6 @@
       <c r="W417" s="7"/>
     </row>
     <row r="418" spans="1:23">
-      <c r="A418" s="8"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
@@ -10217,6 +10869,7 @@
       <c r="W418" s="7"/>
     </row>
     <row r="419" spans="1:23">
+      <c r="A419" s="3"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
@@ -10239,6 +10892,7 @@
       <c r="W419" s="7"/>
     </row>
     <row r="420" spans="1:23">
+      <c r="A420" s="8"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
       <c r="D420" s="5"/>
@@ -10279,7 +10933,7 @@
       <c r="S421" s="5"/>
       <c r="T421" s="5"/>
       <c r="U421" s="5"/>
-      <c r="V421" s="1"/>
+      <c r="V421" s="5"/>
       <c r="W421" s="7"/>
     </row>
     <row r="422" spans="1:23">
@@ -10301,7 +10955,7 @@
       <c r="S422" s="5"/>
       <c r="T422" s="5"/>
       <c r="U422" s="5"/>
-      <c r="V422" s="1"/>
+      <c r="V422" s="5"/>
       <c r="W422" s="7"/>
     </row>
     <row r="423" spans="1:23">
@@ -10323,7 +10977,7 @@
       <c r="S423" s="5"/>
       <c r="T423" s="5"/>
       <c r="U423" s="5"/>
-      <c r="V423" s="5"/>
+      <c r="V423" s="1"/>
       <c r="W423" s="7"/>
     </row>
     <row r="424" spans="1:23">
@@ -10345,7 +10999,7 @@
       <c r="S424" s="5"/>
       <c r="T424" s="5"/>
       <c r="U424" s="5"/>
-      <c r="V424" s="5"/>
+      <c r="V424" s="1"/>
       <c r="W424" s="7"/>
     </row>
     <row r="425" spans="1:23">
@@ -10367,8 +11021,52 @@
       <c r="S425" s="5"/>
       <c r="T425" s="5"/>
       <c r="U425" s="5"/>
-      <c r="V425" s="1"/>
+      <c r="V425" s="5"/>
       <c r="W425" s="7"/>
+    </row>
+    <row r="426" spans="1:23">
+      <c r="B426" s="5"/>
+      <c r="C426" s="5"/>
+      <c r="D426" s="5"/>
+      <c r="E426" s="5"/>
+      <c r="H426" s="5"/>
+      <c r="I426" s="5"/>
+      <c r="J426" s="5"/>
+      <c r="K426" s="5"/>
+      <c r="L426" s="5"/>
+      <c r="M426" s="6"/>
+      <c r="N426" s="5"/>
+      <c r="O426" s="5"/>
+      <c r="P426" s="5"/>
+      <c r="Q426" s="5"/>
+      <c r="R426" s="5"/>
+      <c r="S426" s="5"/>
+      <c r="T426" s="5"/>
+      <c r="U426" s="5"/>
+      <c r="V426" s="5"/>
+      <c r="W426" s="7"/>
+    </row>
+    <row r="427" spans="1:23">
+      <c r="B427" s="5"/>
+      <c r="C427" s="5"/>
+      <c r="D427" s="5"/>
+      <c r="E427" s="5"/>
+      <c r="H427" s="5"/>
+      <c r="I427" s="5"/>
+      <c r="J427" s="5"/>
+      <c r="K427" s="5"/>
+      <c r="L427" s="5"/>
+      <c r="M427" s="6"/>
+      <c r="N427" s="5"/>
+      <c r="O427" s="5"/>
+      <c r="P427" s="5"/>
+      <c r="Q427" s="5"/>
+      <c r="R427" s="5"/>
+      <c r="S427" s="5"/>
+      <c r="T427" s="5"/>
+      <c r="U427" s="5"/>
+      <c r="V427" s="1"/>
+      <c r="W427" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
